--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu_Retrain.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu_Retrain.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>123.5795440673828</v>
+        <v>133.0748443603516</v>
       </c>
       <c r="H2" t="n">
-        <v>51.48725509643555</v>
+        <v>52.60833358764648</v>
       </c>
       <c r="I2" t="n">
-        <v>906.333740234375</v>
+        <v>895.9722900390625</v>
       </c>
       <c r="J2" t="n">
-        <v>72.19676208496094</v>
+        <v>78.39063262939453</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>137.8580627441406</v>
+        <v>140.5399627685547</v>
       </c>
       <c r="H3" t="n">
-        <v>48.31051635742188</v>
+        <v>49.55883026123047</v>
       </c>
       <c r="I3" t="n">
-        <v>913.0865478515625</v>
+        <v>913.1746826171875</v>
       </c>
       <c r="J3" t="n">
-        <v>68.03284454345703</v>
+        <v>69.80177307128906</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>149.5326385498047</v>
+        <v>149.5978698730469</v>
       </c>
       <c r="H4" t="n">
-        <v>46.49565505981445</v>
+        <v>46.70365905761719</v>
       </c>
       <c r="I4" t="n">
-        <v>929.1574096679688</v>
+        <v>928.2382202148438</v>
       </c>
       <c r="J4" t="n">
-        <v>64.54505157470703</v>
+        <v>65.81388092041016</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>161.5010223388672</v>
+        <v>161.2678375244141</v>
       </c>
       <c r="H5" t="n">
-        <v>42.36817169189453</v>
+        <v>47.92244720458984</v>
       </c>
       <c r="I5" t="n">
-        <v>946.6009521484375</v>
+        <v>943.7542724609375</v>
       </c>
       <c r="J5" t="n">
-        <v>60.97359848022461</v>
+        <v>70.16777801513672</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>170.2241363525391</v>
+        <v>165.9416046142578</v>
       </c>
       <c r="H6" t="n">
-        <v>41.83873748779297</v>
+        <v>45.65964126586914</v>
       </c>
       <c r="I6" t="n">
-        <v>964.3278198242188</v>
+        <v>962.53271484375</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12961578369141</v>
+        <v>66.00922393798828</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>106.3239669799805</v>
+        <v>116.6310958862305</v>
       </c>
       <c r="H7" t="n">
-        <v>55.254150390625</v>
+        <v>58.97222518920898</v>
       </c>
       <c r="I7" t="n">
-        <v>839.18310546875</v>
+        <v>846.1099243164062</v>
       </c>
       <c r="J7" t="n">
-        <v>117.6673355102539</v>
+        <v>122.5250701904297</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>115.1128234863281</v>
+        <v>122.3972396850586</v>
       </c>
       <c r="H8" t="n">
-        <v>52.85780334472656</v>
+        <v>54.33182525634766</v>
       </c>
       <c r="I8" t="n">
-        <v>900.53564453125</v>
+        <v>933.0023803710938</v>
       </c>
       <c r="J8" t="n">
-        <v>98.08533477783203</v>
+        <v>81.47201538085938</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>122.9113693237305</v>
+        <v>127.9342346191406</v>
       </c>
       <c r="H9" t="n">
-        <v>49.41946792602539</v>
+        <v>51.63263702392578</v>
       </c>
       <c r="I9" t="n">
-        <v>941.6710205078125</v>
+        <v>950.2098999023438</v>
       </c>
       <c r="J9" t="n">
-        <v>75.28145599365234</v>
+        <v>70.697265625</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>134.2147827148438</v>
+        <v>140.8838195800781</v>
       </c>
       <c r="H10" t="n">
-        <v>45.24178695678711</v>
+        <v>46.13038635253906</v>
       </c>
       <c r="I10" t="n">
-        <v>959.6473999023438</v>
+        <v>960.767822265625</v>
       </c>
       <c r="J10" t="n">
-        <v>63.43331527709961</v>
+        <v>66.70946502685547</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>146.6913604736328</v>
+        <v>151.8140563964844</v>
       </c>
       <c r="H11" t="n">
-        <v>44.43835067749023</v>
+        <v>45.61778259277344</v>
       </c>
       <c r="I11" t="n">
-        <v>968.6992797851562</v>
+        <v>971.6507568359375</v>
       </c>
       <c r="J11" t="n">
-        <v>63.88474273681641</v>
+        <v>67.80869293212891</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>156.4359741210938</v>
+        <v>155.5323181152344</v>
       </c>
       <c r="H12" t="n">
-        <v>43.0561408996582</v>
+        <v>44.61272811889648</v>
       </c>
       <c r="I12" t="n">
-        <v>988.2489624023438</v>
+        <v>980.1347045898438</v>
       </c>
       <c r="J12" t="n">
-        <v>66.06391906738281</v>
+        <v>63.78651809692383</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>161.7894134521484</v>
+        <v>164.9882354736328</v>
       </c>
       <c r="H13" t="n">
-        <v>42.78216934204102</v>
+        <v>43.10788345336914</v>
       </c>
       <c r="I13" t="n">
-        <v>1007.343017578125</v>
+        <v>990.0153198242188</v>
       </c>
       <c r="J13" t="n">
-        <v>70.10120391845703</v>
+        <v>68.47819519042969</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>100.1040115356445</v>
+        <v>104.9671325683594</v>
       </c>
       <c r="H14" t="n">
-        <v>55.1137580871582</v>
+        <v>58.63278198242188</v>
       </c>
       <c r="I14" t="n">
-        <v>218.9614105224609</v>
+        <v>213.8532409667969</v>
       </c>
       <c r="J14" t="n">
-        <v>78.29327392578125</v>
+        <v>78.18362426757812</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>107.3260726928711</v>
+        <v>116.1010513305664</v>
       </c>
       <c r="H15" t="n">
-        <v>54.85291290283203</v>
+        <v>57.80436325073242</v>
       </c>
       <c r="I15" t="n">
-        <v>378.4792785644531</v>
+        <v>353.6252746582031</v>
       </c>
       <c r="J15" t="n">
-        <v>135.7135772705078</v>
+        <v>138.4590606689453</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>114.0683822631836</v>
+        <v>122.6757431030273</v>
       </c>
       <c r="H16" t="n">
-        <v>50.88737487792969</v>
+        <v>56.20412063598633</v>
       </c>
       <c r="I16" t="n">
-        <v>744.4962768554688</v>
+        <v>723.5980834960938</v>
       </c>
       <c r="J16" t="n">
-        <v>167.6430511474609</v>
+        <v>187.1849517822266</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>118.0597534179688</v>
+        <v>124.5440521240234</v>
       </c>
       <c r="H17" t="n">
-        <v>49.10072708129883</v>
+        <v>52.34542083740234</v>
       </c>
       <c r="I17" t="n">
-        <v>953.944091796875</v>
+        <v>966.6295776367188</v>
       </c>
       <c r="J17" t="n">
-        <v>81.42441558837891</v>
+        <v>76.787109375</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>122.1762390136719</v>
+        <v>129.1000213623047</v>
       </c>
       <c r="H18" t="n">
-        <v>48.66540145874023</v>
+        <v>48.56142807006836</v>
       </c>
       <c r="I18" t="n">
-        <v>981.0300903320312</v>
+        <v>988.4401245117188</v>
       </c>
       <c r="J18" t="n">
-        <v>67.00363922119141</v>
+        <v>68.50161743164062</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>134.2821197509766</v>
+        <v>142.1329498291016</v>
       </c>
       <c r="H19" t="n">
-        <v>43.15858459472656</v>
+        <v>45.7808723449707</v>
       </c>
       <c r="I19" t="n">
-        <v>995.4021606445312</v>
+        <v>993.9315795898438</v>
       </c>
       <c r="J19" t="n">
-        <v>70.31345367431641</v>
+        <v>66.59665679931641</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>146.890380859375</v>
+        <v>149.48095703125</v>
       </c>
       <c r="H20" t="n">
-        <v>46.10658264160156</v>
+        <v>44.15233993530273</v>
       </c>
       <c r="I20" t="n">
-        <v>1002.628967285156</v>
+        <v>997.7361450195312</v>
       </c>
       <c r="J20" t="n">
-        <v>70.45831298828125</v>
+        <v>68.70338439941406</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>160.2914886474609</v>
+        <v>167.3296813964844</v>
       </c>
       <c r="H21" t="n">
-        <v>44.42550659179688</v>
+        <v>44.84590148925781</v>
       </c>
       <c r="I21" t="n">
-        <v>1005.132934570312</v>
+        <v>988.07958984375</v>
       </c>
       <c r="J21" t="n">
-        <v>74.16069793701172</v>
+        <v>74.60272216796875</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>217.0289611816406</v>
+        <v>249.0966644287109</v>
       </c>
       <c r="H22" t="n">
-        <v>59.05113220214844</v>
+        <v>62.13843154907227</v>
       </c>
       <c r="I22" t="n">
-        <v>939.6043701171875</v>
+        <v>863.4930419921875</v>
       </c>
       <c r="J22" t="n">
-        <v>126.3633041381836</v>
+        <v>163.6551361083984</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>95.64579772949219</v>
+        <v>99.06479644775391</v>
       </c>
       <c r="H23" t="n">
-        <v>57.76017379760742</v>
+        <v>61.16826629638672</v>
       </c>
       <c r="I23" t="n">
-        <v>147.3904876708984</v>
+        <v>139.4991607666016</v>
       </c>
       <c r="J23" t="n">
-        <v>63.67057800292969</v>
+        <v>61.18497467041016</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>106.9669418334961</v>
+        <v>108.3871536254883</v>
       </c>
       <c r="H24" t="n">
-        <v>54.96941757202148</v>
+        <v>57.80887603759766</v>
       </c>
       <c r="I24" t="n">
-        <v>194.4364776611328</v>
+        <v>183.5532379150391</v>
       </c>
       <c r="J24" t="n">
-        <v>76.48262786865234</v>
+        <v>74.25090789794922</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>115.8490524291992</v>
+        <v>118.482048034668</v>
       </c>
       <c r="H25" t="n">
-        <v>51.98412322998047</v>
+        <v>54.80839920043945</v>
       </c>
       <c r="I25" t="n">
-        <v>265.3755493164062</v>
+        <v>255.5247955322266</v>
       </c>
       <c r="J25" t="n">
-        <v>115.4129409790039</v>
+        <v>103.5902786254883</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>123.3695831298828</v>
+        <v>122.7181091308594</v>
       </c>
       <c r="H26" t="n">
-        <v>50.37722778320312</v>
+        <v>53.29588317871094</v>
       </c>
       <c r="I26" t="n">
-        <v>552.93212890625</v>
+        <v>542.544921875</v>
       </c>
       <c r="J26" t="n">
-        <v>207.6835174560547</v>
+        <v>218.5985412597656</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>124.2366180419922</v>
+        <v>131.2127227783203</v>
       </c>
       <c r="H27" t="n">
-        <v>48.61958694458008</v>
+        <v>50.07712554931641</v>
       </c>
       <c r="I27" t="n">
-        <v>951.5831298828125</v>
+        <v>935.0306396484375</v>
       </c>
       <c r="J27" t="n">
-        <v>109.3705825805664</v>
+        <v>114.1960372924805</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>127.827522277832</v>
+        <v>135.8570251464844</v>
       </c>
       <c r="H28" t="n">
-        <v>46.28018569946289</v>
+        <v>50.47694778442383</v>
       </c>
       <c r="I28" t="n">
-        <v>1000.584350585938</v>
+        <v>995.4630126953125</v>
       </c>
       <c r="J28" t="n">
-        <v>75.11704254150391</v>
+        <v>70.44059753417969</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>143.5390167236328</v>
+        <v>147.279052734375</v>
       </c>
       <c r="H29" t="n">
-        <v>47.28810882568359</v>
+        <v>46.80337524414062</v>
       </c>
       <c r="I29" t="n">
-        <v>998.1401977539062</v>
+        <v>993.5101318359375</v>
       </c>
       <c r="J29" t="n">
-        <v>77.83558654785156</v>
+        <v>71.79963684082031</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>171.2957458496094</v>
+        <v>178.0785675048828</v>
       </c>
       <c r="H30" t="n">
-        <v>47.65088272094727</v>
+        <v>49.9422607421875</v>
       </c>
       <c r="I30" t="n">
-        <v>962.6836547851562</v>
+        <v>931.084716796875</v>
       </c>
       <c r="J30" t="n">
-        <v>102.0514831542969</v>
+        <v>121.557014465332</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>242.7916717529297</v>
+        <v>267.1916809082031</v>
       </c>
       <c r="H31" t="n">
-        <v>60.83447265625</v>
+        <v>64.42264556884766</v>
       </c>
       <c r="I31" t="n">
-        <v>829.7522583007812</v>
+        <v>720.5491943359375</v>
       </c>
       <c r="J31" t="n">
-        <v>198.9362640380859</v>
+        <v>204.5018005371094</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>94.88114929199219</v>
+        <v>96.00183868408203</v>
       </c>
       <c r="H32" t="n">
-        <v>56.90902328491211</v>
+        <v>61.21133041381836</v>
       </c>
       <c r="I32" t="n">
-        <v>111.4378662109375</v>
+        <v>96.52550506591797</v>
       </c>
       <c r="J32" t="n">
-        <v>53.80552673339844</v>
+        <v>51.23441696166992</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>102.7378921508789</v>
+        <v>108.2084274291992</v>
       </c>
       <c r="H33" t="n">
-        <v>57.55103302001953</v>
+        <v>58.13048553466797</v>
       </c>
       <c r="I33" t="n">
-        <v>135.7753601074219</v>
+        <v>123.143424987793</v>
       </c>
       <c r="J33" t="n">
-        <v>54.3312873840332</v>
+        <v>53.19021606445312</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>112.0083236694336</v>
+        <v>112.9622116088867</v>
       </c>
       <c r="H34" t="n">
-        <v>53.08956146240234</v>
+        <v>55.37407302856445</v>
       </c>
       <c r="I34" t="n">
-        <v>169.1341400146484</v>
+        <v>153.4184112548828</v>
       </c>
       <c r="J34" t="n">
-        <v>61.99794387817383</v>
+        <v>61.80039596557617</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>118.202995300293</v>
+        <v>119.4827499389648</v>
       </c>
       <c r="H35" t="n">
-        <v>52.64630508422852</v>
+        <v>54.59690475463867</v>
       </c>
       <c r="I35" t="n">
-        <v>220.3268280029297</v>
+        <v>204.9621734619141</v>
       </c>
       <c r="J35" t="n">
-        <v>86.87711334228516</v>
+        <v>87.97785186767578</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>124.4403228759766</v>
+        <v>127.6171112060547</v>
       </c>
       <c r="H36" t="n">
-        <v>50.26773834228516</v>
+        <v>51.18313598632812</v>
       </c>
       <c r="I36" t="n">
-        <v>389.1882934570312</v>
+        <v>387.5466003417969</v>
       </c>
       <c r="J36" t="n">
-        <v>177.9069061279297</v>
+        <v>180.1901245117188</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3994598388672</v>
+        <v>133.6667633056641</v>
       </c>
       <c r="H37" t="n">
-        <v>48.92012023925781</v>
+        <v>50.1404914855957</v>
       </c>
       <c r="I37" t="n">
-        <v>643.767578125</v>
+        <v>646.9905395507812</v>
       </c>
       <c r="J37" t="n">
-        <v>232.1192474365234</v>
+        <v>215.1334838867188</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>142.4020385742188</v>
+        <v>145.2883453369141</v>
       </c>
       <c r="H38" t="n">
-        <v>45.73785018920898</v>
+        <v>47.99821090698242</v>
       </c>
       <c r="I38" t="n">
-        <v>828.3286743164062</v>
+        <v>870.0196533203125</v>
       </c>
       <c r="J38" t="n">
-        <v>190.9261627197266</v>
+        <v>146.1033020019531</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>181.4242095947266</v>
+        <v>184.5623321533203</v>
       </c>
       <c r="H39" t="n">
-        <v>49.16636657714844</v>
+        <v>53.87370300292969</v>
       </c>
       <c r="I39" t="n">
-        <v>734.681640625</v>
+        <v>697.7922973632812</v>
       </c>
       <c r="J39" t="n">
-        <v>256.3781127929688</v>
+        <v>234.7053985595703</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>252.6042938232422</v>
+        <v>268.5152587890625</v>
       </c>
       <c r="H40" t="n">
-        <v>62.53640365600586</v>
+        <v>61.85152816772461</v>
       </c>
       <c r="I40" t="n">
-        <v>716.4971923828125</v>
+        <v>610.1442260742188</v>
       </c>
       <c r="J40" t="n">
-        <v>258.4488830566406</v>
+        <v>206.0828704833984</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>92.44697570800781</v>
+        <v>94.46173858642578</v>
       </c>
       <c r="H41" t="n">
-        <v>59.78407669067383</v>
+        <v>60.82663726806641</v>
       </c>
       <c r="I41" t="n">
-        <v>86.77754974365234</v>
+        <v>69.93011474609375</v>
       </c>
       <c r="J41" t="n">
-        <v>46.08092880249023</v>
+        <v>47.13840103149414</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>102.0071182250977</v>
+        <v>102.7893371582031</v>
       </c>
       <c r="H42" t="n">
-        <v>55.73533630371094</v>
+        <v>57.87925338745117</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3207015991211</v>
+        <v>87.12702178955078</v>
       </c>
       <c r="J42" t="n">
-        <v>44.97086715698242</v>
+        <v>46.44486236572266</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>109.272705078125</v>
+        <v>114.7726440429688</v>
       </c>
       <c r="H43" t="n">
-        <v>56.26082229614258</v>
+        <v>53.34729766845703</v>
       </c>
       <c r="I43" t="n">
-        <v>125.4095458984375</v>
+        <v>104.8388900756836</v>
       </c>
       <c r="J43" t="n">
-        <v>49.36244964599609</v>
+        <v>48.53326416015625</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>116.3770065307617</v>
+        <v>117.8777847290039</v>
       </c>
       <c r="H44" t="n">
-        <v>52.31406784057617</v>
+        <v>56.13822937011719</v>
       </c>
       <c r="I44" t="n">
-        <v>151.92724609375</v>
+        <v>129.9413604736328</v>
       </c>
       <c r="J44" t="n">
-        <v>54.64600372314453</v>
+        <v>50.39883041381836</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>119.9767074584961</v>
+        <v>121.3047790527344</v>
       </c>
       <c r="H45" t="n">
-        <v>50.66568374633789</v>
+        <v>54.70906448364258</v>
       </c>
       <c r="I45" t="n">
-        <v>171.9040679931641</v>
+        <v>163.3772125244141</v>
       </c>
       <c r="J45" t="n">
-        <v>68.22341156005859</v>
+        <v>64.30970001220703</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>127.6793975830078</v>
+        <v>127.8545684814453</v>
       </c>
       <c r="H46" t="n">
-        <v>48.94033050537109</v>
+        <v>49.96063232421875</v>
       </c>
       <c r="I46" t="n">
-        <v>223.4243469238281</v>
+        <v>220.3074951171875</v>
       </c>
       <c r="J46" t="n">
-        <v>93.28993225097656</v>
+        <v>98.92982482910156</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>141.2620239257812</v>
+        <v>139.9899444580078</v>
       </c>
       <c r="H47" t="n">
-        <v>46.81594848632812</v>
+        <v>51.15370941162109</v>
       </c>
       <c r="I47" t="n">
-        <v>326.5050048828125</v>
+        <v>360.7785949707031</v>
       </c>
       <c r="J47" t="n">
-        <v>189.9961700439453</v>
+        <v>212.5094909667969</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>185.7490081787109</v>
+        <v>195.8519592285156</v>
       </c>
       <c r="H48" t="n">
-        <v>49.62668991088867</v>
+        <v>51.36721038818359</v>
       </c>
       <c r="I48" t="n">
-        <v>505.4226989746094</v>
+        <v>466.1024475097656</v>
       </c>
       <c r="J48" t="n">
-        <v>280.3528137207031</v>
+        <v>208.2129364013672</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>255.7443542480469</v>
+        <v>269.6138916015625</v>
       </c>
       <c r="H49" t="n">
-        <v>60.43837738037109</v>
+        <v>61.47940063476562</v>
       </c>
       <c r="I49" t="n">
-        <v>590.3421630859375</v>
+        <v>487.6157836914062</v>
       </c>
       <c r="J49" t="n">
-        <v>279.5288391113281</v>
+        <v>195.8955230712891</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>99.33134460449219</v>
+        <v>96.45669555664062</v>
       </c>
       <c r="H50" t="n">
-        <v>58.01548767089844</v>
+        <v>61.3636589050293</v>
       </c>
       <c r="I50" t="n">
-        <v>68.31167602539062</v>
+        <v>54.65106201171875</v>
       </c>
       <c r="J50" t="n">
-        <v>42.5184440612793</v>
+        <v>46.43340301513672</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>103.6040115356445</v>
+        <v>107.7107925415039</v>
       </c>
       <c r="H51" t="n">
-        <v>55.82363891601562</v>
+        <v>59.05211639404297</v>
       </c>
       <c r="I51" t="n">
-        <v>80.68672180175781</v>
+        <v>65.80278015136719</v>
       </c>
       <c r="J51" t="n">
-        <v>42.95827102661133</v>
+        <v>44.16210174560547</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>112.1294250488281</v>
+        <v>114.7394027709961</v>
       </c>
       <c r="H52" t="n">
-        <v>54.75536727905273</v>
+        <v>53.88986968994141</v>
       </c>
       <c r="I52" t="n">
-        <v>90.68018341064453</v>
+        <v>75.46914672851562</v>
       </c>
       <c r="J52" t="n">
-        <v>41.39166641235352</v>
+        <v>48.49721145629883</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>112.6297302246094</v>
+        <v>117.1299514770508</v>
       </c>
       <c r="H53" t="n">
-        <v>52.5579948425293</v>
+        <v>55.07472991943359</v>
       </c>
       <c r="I53" t="n">
-        <v>111.3499221801758</v>
+        <v>93.09224700927734</v>
       </c>
       <c r="J53" t="n">
-        <v>44.43145751953125</v>
+        <v>45.58885955810547</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>120.6924514770508</v>
+        <v>122.4502868652344</v>
       </c>
       <c r="H54" t="n">
-        <v>48.8824577331543</v>
+        <v>54.58062362670898</v>
       </c>
       <c r="I54" t="n">
-        <v>131.7012939453125</v>
+        <v>112.8648147583008</v>
       </c>
       <c r="J54" t="n">
-        <v>51.6811408996582</v>
+        <v>48.84627914428711</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>123.7998275756836</v>
+        <v>132.3786926269531</v>
       </c>
       <c r="H55" t="n">
-        <v>51.35680770874023</v>
+        <v>48.73815536499023</v>
       </c>
       <c r="I55" t="n">
-        <v>137.5729827880859</v>
+        <v>131.0266876220703</v>
       </c>
       <c r="J55" t="n">
-        <v>48.32980728149414</v>
+        <v>47.53306198120117</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>138.6875457763672</v>
+        <v>140.5201568603516</v>
       </c>
       <c r="H56" t="n">
-        <v>48.08562850952148</v>
+        <v>48.39861679077148</v>
       </c>
       <c r="I56" t="n">
-        <v>158.0804138183594</v>
+        <v>163.97314453125</v>
       </c>
       <c r="J56" t="n">
-        <v>61.95515441894531</v>
+        <v>75.88056945800781</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>183.88671875</v>
+        <v>194.2084503173828</v>
       </c>
       <c r="H57" t="n">
-        <v>48.96432113647461</v>
+        <v>50.05277252197266</v>
       </c>
       <c r="I57" t="n">
-        <v>289.8761291503906</v>
+        <v>299.983642578125</v>
       </c>
       <c r="J57" t="n">
-        <v>185.4786682128906</v>
+        <v>153.0180053710938</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>253.9190063476562</v>
+        <v>264.9592590332031</v>
       </c>
       <c r="H58" t="n">
-        <v>56.44962310791016</v>
+        <v>59.58970260620117</v>
       </c>
       <c r="I58" t="n">
-        <v>447.6640014648438</v>
+        <v>375.1425170898438</v>
       </c>
       <c r="J58" t="n">
-        <v>265.4502868652344</v>
+        <v>167.0718536376953</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>107.3796539306641</v>
+        <v>108.8522033691406</v>
       </c>
       <c r="H59" t="n">
-        <v>55.92998504638672</v>
+        <v>57.75454711914062</v>
       </c>
       <c r="I59" t="n">
-        <v>50.80632019042969</v>
+        <v>41.75646209716797</v>
       </c>
       <c r="J59" t="n">
-        <v>47.87836456298828</v>
+        <v>48.0156364440918</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>113.647331237793</v>
+        <v>113.3435516357422</v>
       </c>
       <c r="H60" t="n">
-        <v>54.27346038818359</v>
+        <v>55.54719924926758</v>
       </c>
       <c r="I60" t="n">
-        <v>61.75712203979492</v>
+        <v>50.96676254272461</v>
       </c>
       <c r="J60" t="n">
-        <v>46.06033325195312</v>
+        <v>48.17207717895508</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>117.8103103637695</v>
+        <v>120.159065246582</v>
       </c>
       <c r="H61" t="n">
-        <v>54.24556732177734</v>
+        <v>54.32233810424805</v>
       </c>
       <c r="I61" t="n">
-        <v>78.06336975097656</v>
+        <v>66.14545440673828</v>
       </c>
       <c r="J61" t="n">
-        <v>46.18915176391602</v>
+        <v>46.31843948364258</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>121.8394546508789</v>
+        <v>125.1567840576172</v>
       </c>
       <c r="H62" t="n">
-        <v>51.99008178710938</v>
+        <v>53.11932754516602</v>
       </c>
       <c r="I62" t="n">
-        <v>92.85103607177734</v>
+        <v>77.54490661621094</v>
       </c>
       <c r="J62" t="n">
-        <v>45.24708557128906</v>
+        <v>47.95573806762695</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>122.2753677368164</v>
+        <v>130.8555297851562</v>
       </c>
       <c r="H63" t="n">
-        <v>53.158203125</v>
+        <v>50.70615768432617</v>
       </c>
       <c r="I63" t="n">
-        <v>104.7943801879883</v>
+        <v>93.89513397216797</v>
       </c>
       <c r="J63" t="n">
-        <v>43.19478607177734</v>
+        <v>44.71888732910156</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>136.5464782714844</v>
+        <v>151.5231323242188</v>
       </c>
       <c r="H64" t="n">
-        <v>46.79085540771484</v>
+        <v>49.38864135742188</v>
       </c>
       <c r="I64" t="n">
-        <v>117.3034896850586</v>
+        <v>108.6828536987305</v>
       </c>
       <c r="J64" t="n">
-        <v>47.16330337524414</v>
+        <v>50.86137008666992</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>176.2812805175781</v>
+        <v>196.7204437255859</v>
       </c>
       <c r="H65" t="n">
-        <v>49.50645065307617</v>
+        <v>49.32342910766602</v>
       </c>
       <c r="I65" t="n">
-        <v>152.7068634033203</v>
+        <v>172.8096771240234</v>
       </c>
       <c r="J65" t="n">
-        <v>87.85750579833984</v>
+        <v>112.7977142333984</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>120.2172775268555</v>
+        <v>122.8472366333008</v>
       </c>
       <c r="H66" t="n">
-        <v>52.61141586303711</v>
+        <v>54.15967559814453</v>
       </c>
       <c r="I66" t="n">
-        <v>13.23730754852295</v>
+        <v>0.5954373478889465</v>
       </c>
       <c r="J66" t="n">
-        <v>54.50325393676758</v>
+        <v>59.57480621337891</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>124.0406799316406</v>
+        <v>127.0930709838867</v>
       </c>
       <c r="H67" t="n">
-        <v>54.57331848144531</v>
+        <v>55.08964157104492</v>
       </c>
       <c r="I67" t="n">
-        <v>27.58915328979492</v>
+        <v>17.07089233398438</v>
       </c>
       <c r="J67" t="n">
-        <v>54.57639312744141</v>
+        <v>56.63812637329102</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>124.9603652954102</v>
+        <v>130.3688507080078</v>
       </c>
       <c r="H68" t="n">
-        <v>49.95608139038086</v>
+        <v>54.26485824584961</v>
       </c>
       <c r="I68" t="n">
-        <v>44.10554504394531</v>
+        <v>35.17263412475586</v>
       </c>
       <c r="J68" t="n">
-        <v>54.64116287231445</v>
+        <v>54.11275100708008</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>128.2243957519531</v>
+        <v>136.0939636230469</v>
       </c>
       <c r="H69" t="n">
-        <v>50.44063186645508</v>
+        <v>50.83196258544922</v>
       </c>
       <c r="I69" t="n">
-        <v>69.85337066650391</v>
+        <v>56.82490158081055</v>
       </c>
       <c r="J69" t="n">
-        <v>51.14127731323242</v>
+        <v>54.33254623413086</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>138.5855560302734</v>
+        <v>151.6969146728516</v>
       </c>
       <c r="H70" t="n">
-        <v>48.4556884765625</v>
+        <v>48.6657600402832</v>
       </c>
       <c r="I70" t="n">
-        <v>92.01511383056641</v>
+        <v>79.69431304931641</v>
       </c>
       <c r="J70" t="n">
-        <v>49.20573806762695</v>
+        <v>55.19231414794922</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu_Retrain.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_mc_shared_relu_Retrain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>microstructure</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>H1_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>H1_new_pred_KFold_std</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_std</t>
         </is>
@@ -504,17 +509,22 @@
       <c r="F2" t="n">
         <v>10.27148578895017</v>
       </c>
-      <c r="G2" t="n">
-        <v>133.0748443603516</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>52.60833358764648</v>
+        <v>116.6284103393555</v>
       </c>
       <c r="I2" t="n">
-        <v>895.9722900390625</v>
+        <v>32.84298706054688</v>
       </c>
       <c r="J2" t="n">
-        <v>78.39063262939453</v>
+        <v>861.48876953125</v>
+      </c>
+      <c r="K2" t="n">
+        <v>89.33741760253906</v>
       </c>
     </row>
     <row r="3">
@@ -536,17 +546,22 @@
       <c r="F3" t="n">
         <v>10.49540628405087</v>
       </c>
-      <c r="G3" t="n">
-        <v>140.5399627685547</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>49.55883026123047</v>
+        <v>122.4504013061523</v>
       </c>
       <c r="I3" t="n">
-        <v>913.1746826171875</v>
+        <v>34.48849868774414</v>
       </c>
       <c r="J3" t="n">
-        <v>69.80177307128906</v>
+        <v>877.0498046875</v>
+      </c>
+      <c r="K3" t="n">
+        <v>80.41049194335938</v>
       </c>
     </row>
     <row r="4">
@@ -568,17 +583,22 @@
       <c r="F4" t="n">
         <v>11.11292799977388</v>
       </c>
-      <c r="G4" t="n">
-        <v>149.5978698730469</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>46.70365905761719</v>
+        <v>125.4688262939453</v>
       </c>
       <c r="I4" t="n">
-        <v>928.2382202148438</v>
+        <v>33.69667053222656</v>
       </c>
       <c r="J4" t="n">
-        <v>65.81388092041016</v>
+        <v>893.4556274414062</v>
+      </c>
+      <c r="K4" t="n">
+        <v>76.81696319580078</v>
       </c>
     </row>
     <row r="5">
@@ -600,17 +620,22 @@
       <c r="F5" t="n">
         <v>11.33579528302992</v>
       </c>
-      <c r="G5" t="n">
-        <v>161.2678375244141</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>47.92244720458984</v>
+        <v>132.3225708007812</v>
       </c>
       <c r="I5" t="n">
-        <v>943.7542724609375</v>
+        <v>30.62749862670898</v>
       </c>
       <c r="J5" t="n">
-        <v>70.16777801513672</v>
+        <v>916.5611572265625</v>
+      </c>
+      <c r="K5" t="n">
+        <v>71.12094879150391</v>
       </c>
     </row>
     <row r="6">
@@ -632,17 +657,22 @@
       <c r="F6" t="n">
         <v>11.53221857575777</v>
       </c>
-      <c r="G6" t="n">
-        <v>165.9416046142578</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>45.65964126586914</v>
+        <v>143.0153656005859</v>
       </c>
       <c r="I6" t="n">
-        <v>962.53271484375</v>
+        <v>31.19834136962891</v>
       </c>
       <c r="J6" t="n">
-        <v>66.00922393798828</v>
+        <v>944.3104248046875</v>
+      </c>
+      <c r="K6" t="n">
+        <v>65.94463348388672</v>
       </c>
     </row>
     <row r="7">
@@ -664,17 +694,22 @@
       <c r="F7" t="n">
         <v>11.73836346032553</v>
       </c>
-      <c r="G7" t="n">
-        <v>116.6310958862305</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>58.97222518920898</v>
+        <v>109.4355239868164</v>
       </c>
       <c r="I7" t="n">
-        <v>846.1099243164062</v>
+        <v>34.36505126953125</v>
       </c>
       <c r="J7" t="n">
-        <v>122.5250701904297</v>
+        <v>762.9617309570312</v>
+      </c>
+      <c r="K7" t="n">
+        <v>149.4076995849609</v>
       </c>
     </row>
     <row r="8">
@@ -696,17 +731,22 @@
       <c r="F8" t="n">
         <v>12.47588443056982</v>
       </c>
-      <c r="G8" t="n">
-        <v>122.3972396850586</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>54.33182525634766</v>
+        <v>115.4076156616211</v>
       </c>
       <c r="I8" t="n">
-        <v>933.0023803710938</v>
+        <v>32.41573715209961</v>
       </c>
       <c r="J8" t="n">
-        <v>81.47201538085938</v>
+        <v>890.894775390625</v>
+      </c>
+      <c r="K8" t="n">
+        <v>97.83652496337891</v>
       </c>
     </row>
     <row r="9">
@@ -728,17 +768,22 @@
       <c r="F9" t="n">
         <v>13.31360035996819</v>
       </c>
-      <c r="G9" t="n">
-        <v>127.9342346191406</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>51.63263702392578</v>
+        <v>119.1518783569336</v>
       </c>
       <c r="I9" t="n">
-        <v>950.2098999023438</v>
+        <v>31.87269020080566</v>
       </c>
       <c r="J9" t="n">
-        <v>70.697265625</v>
+        <v>931.4566650390625</v>
+      </c>
+      <c r="K9" t="n">
+        <v>76.33015441894531</v>
       </c>
     </row>
     <row r="10">
@@ -760,17 +805,22 @@
       <c r="F10" t="n">
         <v>14.04586286313179</v>
       </c>
-      <c r="G10" t="n">
-        <v>140.8838195800781</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>46.13038635253906</v>
+        <v>127.5077590942383</v>
       </c>
       <c r="I10" t="n">
-        <v>960.767822265625</v>
+        <v>32.07265472412109</v>
       </c>
       <c r="J10" t="n">
-        <v>66.70946502685547</v>
+        <v>948.0912475585938</v>
+      </c>
+      <c r="K10" t="n">
+        <v>65.73873138427734</v>
       </c>
     </row>
     <row r="11">
@@ -792,17 +842,22 @@
       <c r="F11" t="n">
         <v>14.78596965177877</v>
       </c>
-      <c r="G11" t="n">
-        <v>151.8140563964844</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>45.61778259277344</v>
+        <v>131.8409271240234</v>
       </c>
       <c r="I11" t="n">
-        <v>971.6507568359375</v>
+        <v>31.26976585388184</v>
       </c>
       <c r="J11" t="n">
-        <v>67.80869293212891</v>
+        <v>965.00634765625</v>
+      </c>
+      <c r="K11" t="n">
+        <v>66.49691009521484</v>
       </c>
     </row>
     <row r="12">
@@ -824,17 +879,22 @@
       <c r="F12" t="n">
         <v>14.60750023008277</v>
       </c>
-      <c r="G12" t="n">
-        <v>155.5323181152344</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>44.61272811889648</v>
+        <v>137.6621246337891</v>
       </c>
       <c r="I12" t="n">
-        <v>980.1347045898438</v>
+        <v>31.13082504272461</v>
       </c>
       <c r="J12" t="n">
-        <v>63.78651809692383</v>
+        <v>979.9157104492188</v>
+      </c>
+      <c r="K12" t="n">
+        <v>66.12796020507812</v>
       </c>
     </row>
     <row r="13">
@@ -856,17 +916,22 @@
       <c r="F13" t="n">
         <v>13.93632017907879</v>
       </c>
-      <c r="G13" t="n">
-        <v>164.9882354736328</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>43.10788345336914</v>
+        <v>149.1747589111328</v>
       </c>
       <c r="I13" t="n">
-        <v>990.0153198242188</v>
+        <v>30.47623062133789</v>
       </c>
       <c r="J13" t="n">
-        <v>68.47819519042969</v>
+        <v>992.5380249023438</v>
+      </c>
+      <c r="K13" t="n">
+        <v>71.37712860107422</v>
       </c>
     </row>
     <row r="14">
@@ -888,17 +953,22 @@
       <c r="F14" t="n">
         <v>13.2060787967079</v>
       </c>
-      <c r="G14" t="n">
-        <v>104.9671325683594</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>58.63278198242188</v>
+        <v>103.0396347045898</v>
       </c>
       <c r="I14" t="n">
-        <v>213.8532409667969</v>
+        <v>36.16921234130859</v>
       </c>
       <c r="J14" t="n">
-        <v>78.18362426757812</v>
+        <v>214.9315032958984</v>
+      </c>
+      <c r="K14" t="n">
+        <v>81.21897888183594</v>
       </c>
     </row>
     <row r="15">
@@ -920,17 +990,22 @@
       <c r="F15" t="n">
         <v>14.43724685121477</v>
       </c>
-      <c r="G15" t="n">
-        <v>116.1010513305664</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>57.80436325073242</v>
+        <v>108.4378204345703</v>
       </c>
       <c r="I15" t="n">
-        <v>353.6252746582031</v>
+        <v>34.26286697387695</v>
       </c>
       <c r="J15" t="n">
-        <v>138.4590606689453</v>
+        <v>377.9847106933594</v>
+      </c>
+      <c r="K15" t="n">
+        <v>150.3570098876953</v>
       </c>
     </row>
     <row r="16">
@@ -952,17 +1027,22 @@
       <c r="F16" t="n">
         <v>15.77509757365795</v>
       </c>
-      <c r="G16" t="n">
-        <v>122.6757431030273</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>56.20412063598633</v>
+        <v>113.7145080566406</v>
       </c>
       <c r="I16" t="n">
-        <v>723.5980834960938</v>
+        <v>35.34604644775391</v>
       </c>
       <c r="J16" t="n">
-        <v>187.1849517822266</v>
+        <v>716.2014770507812</v>
+      </c>
+      <c r="K16" t="n">
+        <v>173.6257476806641</v>
       </c>
     </row>
     <row r="17">
@@ -984,17 +1064,22 @@
       <c r="F17" t="n">
         <v>17.01643502058164</v>
       </c>
-      <c r="G17" t="n">
-        <v>124.5440521240234</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>52.34542083740234</v>
+        <v>118.0459747314453</v>
       </c>
       <c r="I17" t="n">
-        <v>966.6295776367188</v>
+        <v>32.62103271484375</v>
       </c>
       <c r="J17" t="n">
-        <v>76.787109375</v>
+        <v>970.6087646484375</v>
+      </c>
+      <c r="K17" t="n">
+        <v>79.66362762451172</v>
       </c>
     </row>
     <row r="18">
@@ -1016,17 +1101,22 @@
       <c r="F18" t="n">
         <v>17.57324774662381</v>
       </c>
-      <c r="G18" t="n">
-        <v>129.1000213623047</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>48.56142807006836</v>
+        <v>125.6848831176758</v>
       </c>
       <c r="I18" t="n">
-        <v>988.4401245117188</v>
+        <v>32.64992141723633</v>
       </c>
       <c r="J18" t="n">
-        <v>68.50161743164062</v>
+        <v>991.3845825195312</v>
+      </c>
+      <c r="K18" t="n">
+        <v>70.18415069580078</v>
       </c>
     </row>
     <row r="19">
@@ -1048,17 +1138,22 @@
       <c r="F19" t="n">
         <v>18.2282289394109</v>
       </c>
-      <c r="G19" t="n">
-        <v>142.1329498291016</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H19" t="n">
-        <v>45.7808723449707</v>
+        <v>129.6427154541016</v>
       </c>
       <c r="I19" t="n">
-        <v>993.9315795898438</v>
+        <v>32.07157135009766</v>
       </c>
       <c r="J19" t="n">
-        <v>66.59665679931641</v>
+        <v>1003.352478027344</v>
+      </c>
+      <c r="K19" t="n">
+        <v>70.59821319580078</v>
       </c>
     </row>
     <row r="20">
@@ -1080,17 +1175,22 @@
       <c r="F20" t="n">
         <v>18.05168677518481</v>
       </c>
-      <c r="G20" t="n">
-        <v>149.48095703125</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H20" t="n">
-        <v>44.15233993530273</v>
+        <v>134.8632049560547</v>
       </c>
       <c r="I20" t="n">
-        <v>997.7361450195312</v>
+        <v>31.28805541992188</v>
       </c>
       <c r="J20" t="n">
-        <v>68.70338439941406</v>
+        <v>1006.071655273438</v>
+      </c>
+      <c r="K20" t="n">
+        <v>68.38692474365234</v>
       </c>
     </row>
     <row r="21">
@@ -1112,17 +1212,22 @@
       <c r="F21" t="n">
         <v>17.30316829702608</v>
       </c>
-      <c r="G21" t="n">
-        <v>167.3296813964844</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H21" t="n">
-        <v>44.84590148925781</v>
+        <v>146.2404022216797</v>
       </c>
       <c r="I21" t="n">
-        <v>988.07958984375</v>
+        <v>30.27110481262207</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60272216796875</v>
+        <v>1005.639770507812</v>
+      </c>
+      <c r="K21" t="n">
+        <v>73.06774139404297</v>
       </c>
     </row>
     <row r="22">
@@ -1144,17 +1249,22 @@
       <c r="F22" t="n">
         <v>15.87142913305469</v>
       </c>
-      <c r="G22" t="n">
-        <v>249.0966644287109</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>62.13843154907227</v>
+        <v>187.8646392822266</v>
       </c>
       <c r="I22" t="n">
-        <v>863.4930419921875</v>
+        <v>45.91013717651367</v>
       </c>
       <c r="J22" t="n">
-        <v>163.6551361083984</v>
+        <v>955.8738403320312</v>
+      </c>
+      <c r="K22" t="n">
+        <v>116.1745986938477</v>
       </c>
     </row>
     <row r="23">
@@ -1176,17 +1286,22 @@
       <c r="F23" t="n">
         <v>16.2842163689804</v>
       </c>
-      <c r="G23" t="n">
-        <v>99.06479644775391</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H23" t="n">
-        <v>61.16826629638672</v>
+        <v>98.39402008056641</v>
       </c>
       <c r="I23" t="n">
-        <v>139.4991607666016</v>
+        <v>37.27133941650391</v>
       </c>
       <c r="J23" t="n">
-        <v>61.18497467041016</v>
+        <v>128.6109924316406</v>
+      </c>
+      <c r="K23" t="n">
+        <v>62.39690399169922</v>
       </c>
     </row>
     <row r="24">
@@ -1208,17 +1323,22 @@
       <c r="F24" t="n">
         <v>17.99859633271077</v>
       </c>
-      <c r="G24" t="n">
-        <v>108.3871536254883</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>57.80887603759766</v>
+        <v>105.6508865356445</v>
       </c>
       <c r="I24" t="n">
-        <v>183.5532379150391</v>
+        <v>36.91169357299805</v>
       </c>
       <c r="J24" t="n">
-        <v>74.25090789794922</v>
+        <v>179.8170471191406</v>
+      </c>
+      <c r="K24" t="n">
+        <v>75.08480834960938</v>
       </c>
     </row>
     <row r="25">
@@ -1240,17 +1360,22 @@
       <c r="F25" t="n">
         <v>19.53665474474453</v>
       </c>
-      <c r="G25" t="n">
-        <v>118.482048034668</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>54.80839920043945</v>
+        <v>112.9219665527344</v>
       </c>
       <c r="I25" t="n">
-        <v>255.5247955322266</v>
+        <v>33.68302917480469</v>
       </c>
       <c r="J25" t="n">
-        <v>103.5902786254883</v>
+        <v>273.4366760253906</v>
+      </c>
+      <c r="K25" t="n">
+        <v>119.9595184326172</v>
       </c>
     </row>
     <row r="26">
@@ -1272,17 +1397,22 @@
       <c r="F26" t="n">
         <v>21.18080958029204</v>
       </c>
-      <c r="G26" t="n">
-        <v>122.7181091308594</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H26" t="n">
-        <v>53.29588317871094</v>
+        <v>117.2569274902344</v>
       </c>
       <c r="I26" t="n">
-        <v>542.544921875</v>
+        <v>33.69894409179688</v>
       </c>
       <c r="J26" t="n">
-        <v>218.5985412597656</v>
+        <v>562.67333984375</v>
+      </c>
+      <c r="K26" t="n">
+        <v>206.9770355224609</v>
       </c>
     </row>
     <row r="27">
@@ -1304,17 +1434,22 @@
       <c r="F27" t="n">
         <v>22.36133238808863</v>
       </c>
-      <c r="G27" t="n">
-        <v>131.2127227783203</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>50.07712554931641</v>
+        <v>121.8510513305664</v>
       </c>
       <c r="I27" t="n">
-        <v>935.0306396484375</v>
+        <v>31.61451148986816</v>
       </c>
       <c r="J27" t="n">
-        <v>114.1960372924805</v>
+        <v>954.3591918945312</v>
+      </c>
+      <c r="K27" t="n">
+        <v>99.62203216552734</v>
       </c>
     </row>
     <row r="28">
@@ -1336,17 +1471,22 @@
       <c r="F28" t="n">
         <v>22.25528267810615</v>
       </c>
-      <c r="G28" t="n">
-        <v>135.8570251464844</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>50.47694778442383</v>
+        <v>127.1730575561523</v>
       </c>
       <c r="I28" t="n">
-        <v>995.4630126953125</v>
+        <v>32.66710662841797</v>
       </c>
       <c r="J28" t="n">
-        <v>70.44059753417969</v>
+        <v>1003.709716796875</v>
+      </c>
+      <c r="K28" t="n">
+        <v>70.77086639404297</v>
       </c>
     </row>
     <row r="29">
@@ -1368,17 +1508,22 @@
       <c r="F29" t="n">
         <v>22.11853696692908</v>
       </c>
-      <c r="G29" t="n">
-        <v>147.279052734375</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>46.80337524414062</v>
+        <v>131.5788116455078</v>
       </c>
       <c r="I29" t="n">
-        <v>993.5101318359375</v>
+        <v>31.30952835083008</v>
       </c>
       <c r="J29" t="n">
-        <v>71.79963684082031</v>
+        <v>998.7241821289062</v>
+      </c>
+      <c r="K29" t="n">
+        <v>77.00925445556641</v>
       </c>
     </row>
     <row r="30">
@@ -1400,17 +1545,22 @@
       <c r="F30" t="n">
         <v>21.13587239531939</v>
       </c>
-      <c r="G30" t="n">
-        <v>178.0785675048828</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>49.9422607421875</v>
+        <v>143.1893615722656</v>
       </c>
       <c r="I30" t="n">
-        <v>931.084716796875</v>
+        <v>31.56078338623047</v>
       </c>
       <c r="J30" t="n">
-        <v>121.557014465332</v>
+        <v>968.6624145507812</v>
+      </c>
+      <c r="K30" t="n">
+        <v>96.40473937988281</v>
       </c>
     </row>
     <row r="31">
@@ -1432,17 +1582,22 @@
       <c r="F31" t="n">
         <v>19.80061812897557</v>
       </c>
-      <c r="G31" t="n">
-        <v>267.1916809082031</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H31" t="n">
-        <v>64.42264556884766</v>
+        <v>192.0052795410156</v>
       </c>
       <c r="I31" t="n">
-        <v>720.5491943359375</v>
+        <v>48.11191558837891</v>
       </c>
       <c r="J31" t="n">
-        <v>204.5018005371094</v>
+        <v>825.2578735351562</v>
+      </c>
+      <c r="K31" t="n">
+        <v>186.892333984375</v>
       </c>
     </row>
     <row r="32">
@@ -1464,17 +1619,22 @@
       <c r="F32" t="n">
         <v>20.55168297688286</v>
       </c>
-      <c r="G32" t="n">
-        <v>96.00183868408203</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H32" t="n">
-        <v>61.21133041381836</v>
+        <v>94.86814880371094</v>
       </c>
       <c r="I32" t="n">
-        <v>96.52550506591797</v>
+        <v>39.37903213500977</v>
       </c>
       <c r="J32" t="n">
-        <v>51.23441696166992</v>
+        <v>89.76271820068359</v>
+      </c>
+      <c r="K32" t="n">
+        <v>47.3406867980957</v>
       </c>
     </row>
     <row r="33">
@@ -1496,17 +1656,22 @@
       <c r="F33" t="n">
         <v>22.96934284445093</v>
       </c>
-      <c r="G33" t="n">
-        <v>108.2084274291992</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H33" t="n">
-        <v>58.13048553466797</v>
+        <v>98.30362701416016</v>
       </c>
       <c r="I33" t="n">
-        <v>123.143424987793</v>
+        <v>35.05113220214844</v>
       </c>
       <c r="J33" t="n">
-        <v>53.19021606445312</v>
+        <v>120.017463684082</v>
+      </c>
+      <c r="K33" t="n">
+        <v>56.08943939208984</v>
       </c>
     </row>
     <row r="34">
@@ -1528,17 +1693,22 @@
       <c r="F34" t="n">
         <v>24.40915250803127</v>
       </c>
-      <c r="G34" t="n">
-        <v>112.9622116088867</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>55.37407302856445</v>
+        <v>108.4920196533203</v>
       </c>
       <c r="I34" t="n">
-        <v>153.4184112548828</v>
+        <v>35.32238388061523</v>
       </c>
       <c r="J34" t="n">
-        <v>61.80039596557617</v>
+        <v>146.6965789794922</v>
+      </c>
+      <c r="K34" t="n">
+        <v>60.63681411743164</v>
       </c>
     </row>
     <row r="35">
@@ -1560,17 +1730,22 @@
       <c r="F35" t="n">
         <v>26.0811880993595</v>
       </c>
-      <c r="G35" t="n">
-        <v>119.4827499389648</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H35" t="n">
-        <v>54.59690475463867</v>
+        <v>111.1254806518555</v>
       </c>
       <c r="I35" t="n">
-        <v>204.9621734619141</v>
+        <v>32.81682205200195</v>
       </c>
       <c r="J35" t="n">
-        <v>87.97785186767578</v>
+        <v>204.4226989746094</v>
+      </c>
+      <c r="K35" t="n">
+        <v>84.32586669921875</v>
       </c>
     </row>
     <row r="36">
@@ -1592,17 +1767,22 @@
       <c r="F36" t="n">
         <v>26.87614780904968</v>
       </c>
-      <c r="G36" t="n">
-        <v>127.6171112060547</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H36" t="n">
-        <v>51.18313598632812</v>
+        <v>117.9838943481445</v>
       </c>
       <c r="I36" t="n">
-        <v>387.5466003417969</v>
+        <v>32.73334503173828</v>
       </c>
       <c r="J36" t="n">
-        <v>180.1901245117188</v>
+        <v>377.1678771972656</v>
+      </c>
+      <c r="K36" t="n">
+        <v>171.8661651611328</v>
       </c>
     </row>
     <row r="37">
@@ -1624,17 +1804,22 @@
       <c r="F37" t="n">
         <v>27.16629873490772</v>
       </c>
-      <c r="G37" t="n">
-        <v>133.6667633056641</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H37" t="n">
-        <v>50.1404914855957</v>
+        <v>125.4659729003906</v>
       </c>
       <c r="I37" t="n">
-        <v>646.9905395507812</v>
+        <v>32.90990447998047</v>
       </c>
       <c r="J37" t="n">
-        <v>215.1334838867188</v>
+        <v>596.1253662109375</v>
+      </c>
+      <c r="K37" t="n">
+        <v>217.6080017089844</v>
       </c>
     </row>
     <row r="38">
@@ -1656,17 +1841,22 @@
       <c r="F38" t="n">
         <v>27.25598473560972</v>
       </c>
-      <c r="G38" t="n">
-        <v>145.2883453369141</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H38" t="n">
-        <v>47.99821090698242</v>
+        <v>132.0004730224609</v>
       </c>
       <c r="I38" t="n">
-        <v>870.0196533203125</v>
+        <v>30.58488464355469</v>
       </c>
       <c r="J38" t="n">
-        <v>146.1033020019531</v>
+        <v>854.7562255859375</v>
+      </c>
+      <c r="K38" t="n">
+        <v>172.9140625</v>
       </c>
     </row>
     <row r="39">
@@ -1688,17 +1878,22 @@
       <c r="F39" t="n">
         <v>26.04628332899345</v>
       </c>
-      <c r="G39" t="n">
-        <v>184.5623321533203</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H39" t="n">
-        <v>53.87370300292969</v>
+        <v>141.4247894287109</v>
       </c>
       <c r="I39" t="n">
-        <v>697.7922973632812</v>
+        <v>32.53652572631836</v>
       </c>
       <c r="J39" t="n">
-        <v>234.7053985595703</v>
+        <v>754.3222045898438</v>
+      </c>
+      <c r="K39" t="n">
+        <v>226.2564697265625</v>
       </c>
     </row>
     <row r="40">
@@ -1720,17 +1915,22 @@
       <c r="F40" t="n">
         <v>23.96978635149335</v>
       </c>
-      <c r="G40" t="n">
-        <v>268.5152587890625</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H40" t="n">
-        <v>61.85152816772461</v>
+        <v>195.5093231201172</v>
       </c>
       <c r="I40" t="n">
-        <v>610.1442260742188</v>
+        <v>51.86634826660156</v>
       </c>
       <c r="J40" t="n">
-        <v>206.0828704833984</v>
+        <v>701.7242431640625</v>
+      </c>
+      <c r="K40" t="n">
+        <v>233.5134582519531</v>
       </c>
     </row>
     <row r="41">
@@ -1752,17 +1952,22 @@
       <c r="F41" t="n">
         <v>25.6116837653232</v>
       </c>
-      <c r="G41" t="n">
-        <v>94.46173858642578</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>60.82663726806641</v>
+        <v>91.97071075439453</v>
       </c>
       <c r="I41" t="n">
-        <v>69.93011474609375</v>
+        <v>39.17448425292969</v>
       </c>
       <c r="J41" t="n">
-        <v>47.13840103149414</v>
+        <v>68.69007873535156</v>
+      </c>
+      <c r="K41" t="n">
+        <v>47.13835144042969</v>
       </c>
     </row>
     <row r="42">
@@ -1784,17 +1989,22 @@
       <c r="F42" t="n">
         <v>28.41067839248494</v>
       </c>
-      <c r="G42" t="n">
-        <v>102.7893371582031</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H42" t="n">
-        <v>57.87925338745117</v>
+        <v>99.18770599365234</v>
       </c>
       <c r="I42" t="n">
-        <v>87.12702178955078</v>
+        <v>38.60485458374023</v>
       </c>
       <c r="J42" t="n">
-        <v>46.44486236572266</v>
+        <v>90.63414001464844</v>
+      </c>
+      <c r="K42" t="n">
+        <v>48.00159072875977</v>
       </c>
     </row>
     <row r="43">
@@ -1816,17 +2026,22 @@
       <c r="F43" t="n">
         <v>30.68040031937237</v>
       </c>
-      <c r="G43" t="n">
-        <v>114.7726440429688</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H43" t="n">
-        <v>53.34729766845703</v>
+        <v>102.7236099243164</v>
       </c>
       <c r="I43" t="n">
-        <v>104.8388900756836</v>
+        <v>34.93020248413086</v>
       </c>
       <c r="J43" t="n">
-        <v>48.53326416015625</v>
+        <v>109.7421112060547</v>
+      </c>
+      <c r="K43" t="n">
+        <v>46.88529205322266</v>
       </c>
     </row>
     <row r="44">
@@ -1848,17 +2063,22 @@
       <c r="F44" t="n">
         <v>32.34762367758118</v>
       </c>
-      <c r="G44" t="n">
-        <v>117.8777847290039</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>56.13822937011719</v>
+        <v>109.4552841186523</v>
       </c>
       <c r="I44" t="n">
-        <v>129.9413604736328</v>
+        <v>34.11346817016602</v>
       </c>
       <c r="J44" t="n">
-        <v>50.39883041381836</v>
+        <v>133.2601470947266</v>
+      </c>
+      <c r="K44" t="n">
+        <v>53.95001220703125</v>
       </c>
     </row>
     <row r="45">
@@ -1880,17 +2100,22 @@
       <c r="F45" t="n">
         <v>33.26712421235609</v>
       </c>
-      <c r="G45" t="n">
-        <v>121.3047790527344</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H45" t="n">
-        <v>54.70906448364258</v>
+        <v>116.0176544189453</v>
       </c>
       <c r="I45" t="n">
-        <v>163.3772125244141</v>
+        <v>33.95024108886719</v>
       </c>
       <c r="J45" t="n">
-        <v>64.30970001220703</v>
+        <v>163.9387664794922</v>
+      </c>
+      <c r="K45" t="n">
+        <v>61.94313812255859</v>
       </c>
     </row>
     <row r="46">
@@ -1912,17 +2137,22 @@
       <c r="F46" t="n">
         <v>33.39925272231932</v>
       </c>
-      <c r="G46" t="n">
-        <v>127.8545684814453</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H46" t="n">
-        <v>49.96063232421875</v>
+        <v>124.6661605834961</v>
       </c>
       <c r="I46" t="n">
-        <v>220.3074951171875</v>
+        <v>32.45753479003906</v>
       </c>
       <c r="J46" t="n">
-        <v>98.92982482910156</v>
+        <v>225.0622406005859</v>
+      </c>
+      <c r="K46" t="n">
+        <v>102.9804840087891</v>
       </c>
     </row>
     <row r="47">
@@ -1944,17 +2174,22 @@
       <c r="F47" t="n">
         <v>32.83385481517335</v>
       </c>
-      <c r="G47" t="n">
-        <v>139.9899444580078</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H47" t="n">
-        <v>51.15370941162109</v>
+        <v>129.0716552734375</v>
       </c>
       <c r="I47" t="n">
-        <v>360.7785949707031</v>
+        <v>30.89495658874512</v>
       </c>
       <c r="J47" t="n">
-        <v>212.5094909667969</v>
+        <v>329.9055786132812</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.1520690917969</v>
       </c>
     </row>
     <row r="48">
@@ -1976,17 +2211,22 @@
       <c r="F48" t="n">
         <v>31.22587875804939</v>
       </c>
-      <c r="G48" t="n">
-        <v>195.8519592285156</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H48" t="n">
-        <v>51.36721038818359</v>
+        <v>138.7020111083984</v>
       </c>
       <c r="I48" t="n">
-        <v>466.1024475097656</v>
+        <v>31.32741355895996</v>
       </c>
       <c r="J48" t="n">
-        <v>208.2129364013672</v>
+        <v>545.7003173828125</v>
+      </c>
+      <c r="K48" t="n">
+        <v>253.7497406005859</v>
       </c>
     </row>
     <row r="49">
@@ -2008,17 +2248,22 @@
       <c r="F49" t="n">
         <v>28.00050845971687</v>
       </c>
-      <c r="G49" t="n">
-        <v>269.6138916015625</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H49" t="n">
-        <v>61.47940063476562</v>
+        <v>198.5568695068359</v>
       </c>
       <c r="I49" t="n">
-        <v>487.6157836914062</v>
+        <v>53.96901702880859</v>
       </c>
       <c r="J49" t="n">
-        <v>195.8955230712891</v>
+        <v>593.93505859375</v>
+      </c>
+      <c r="K49" t="n">
+        <v>248.2428741455078</v>
       </c>
     </row>
     <row r="50">
@@ -2040,17 +2285,22 @@
       <c r="F50" t="n">
         <v>32.75859992753161</v>
       </c>
-      <c r="G50" t="n">
-        <v>96.45669555664062</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H50" t="n">
-        <v>61.3636589050293</v>
+        <v>95.28018951416016</v>
       </c>
       <c r="I50" t="n">
-        <v>54.65106201171875</v>
+        <v>38.34342193603516</v>
       </c>
       <c r="J50" t="n">
-        <v>46.43340301513672</v>
+        <v>51.76623153686523</v>
+      </c>
+      <c r="K50" t="n">
+        <v>42.58712768554688</v>
       </c>
     </row>
     <row r="51">
@@ -2072,17 +2322,22 @@
       <c r="F51" t="n">
         <v>35.60454595063857</v>
       </c>
-      <c r="G51" t="n">
-        <v>107.7107925415039</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H51" t="n">
-        <v>59.05211639404297</v>
+        <v>99.39514923095703</v>
       </c>
       <c r="I51" t="n">
-        <v>65.80278015136719</v>
+        <v>36.39072418212891</v>
       </c>
       <c r="J51" t="n">
-        <v>44.16210174560547</v>
+        <v>69.28792572021484</v>
+      </c>
+      <c r="K51" t="n">
+        <v>43.78447723388672</v>
       </c>
     </row>
     <row r="52">
@@ -2104,17 +2359,22 @@
       <c r="F52" t="n">
         <v>38.13811789539464</v>
       </c>
-      <c r="G52" t="n">
-        <v>114.7394027709961</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H52" t="n">
-        <v>53.88986968994141</v>
+        <v>104.6357955932617</v>
       </c>
       <c r="I52" t="n">
-        <v>75.46914672851562</v>
+        <v>36.162353515625</v>
       </c>
       <c r="J52" t="n">
-        <v>48.49721145629883</v>
+        <v>76.23958587646484</v>
+      </c>
+      <c r="K52" t="n">
+        <v>42.016357421875</v>
       </c>
     </row>
     <row r="53">
@@ -2136,17 +2396,22 @@
       <c r="F53" t="n">
         <v>39.1380055059179</v>
       </c>
-      <c r="G53" t="n">
-        <v>117.1299514770508</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H53" t="n">
-        <v>55.07472991943359</v>
+        <v>108.2366714477539</v>
       </c>
       <c r="I53" t="n">
-        <v>93.09224700927734</v>
+        <v>34.91997528076172</v>
       </c>
       <c r="J53" t="n">
-        <v>45.58885955810547</v>
+        <v>99.36080169677734</v>
+      </c>
+      <c r="K53" t="n">
+        <v>43.32302474975586</v>
       </c>
     </row>
     <row r="54">
@@ -2168,17 +2433,22 @@
       <c r="F54" t="n">
         <v>40.17007780104868</v>
       </c>
-      <c r="G54" t="n">
-        <v>122.4502868652344</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H54" t="n">
-        <v>54.58062362670898</v>
+        <v>112.9351272583008</v>
       </c>
       <c r="I54" t="n">
-        <v>112.8648147583008</v>
+        <v>33.6302375793457</v>
       </c>
       <c r="J54" t="n">
-        <v>48.84627914428711</v>
+        <v>121.0084762573242</v>
+      </c>
+      <c r="K54" t="n">
+        <v>46.76444625854492</v>
       </c>
     </row>
     <row r="55">
@@ -2200,17 +2470,22 @@
       <c r="F55" t="n">
         <v>40.31777520333784</v>
       </c>
-      <c r="G55" t="n">
-        <v>132.3786926269531</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H55" t="n">
-        <v>48.73815536499023</v>
+        <v>121.1824645996094</v>
       </c>
       <c r="I55" t="n">
-        <v>131.0266876220703</v>
+        <v>33.00092315673828</v>
       </c>
       <c r="J55" t="n">
-        <v>47.53306198120117</v>
+        <v>139.0888671875</v>
+      </c>
+      <c r="K55" t="n">
+        <v>47.41716384887695</v>
       </c>
     </row>
     <row r="56">
@@ -2232,17 +2507,22 @@
       <c r="F56" t="n">
         <v>38.89328689858721</v>
       </c>
-      <c r="G56" t="n">
-        <v>140.5201568603516</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H56" t="n">
-        <v>48.39861679077148</v>
+        <v>128.2066497802734</v>
       </c>
       <c r="I56" t="n">
-        <v>163.97314453125</v>
+        <v>34.0199089050293</v>
       </c>
       <c r="J56" t="n">
-        <v>75.88056945800781</v>
+        <v>160.8786468505859</v>
+      </c>
+      <c r="K56" t="n">
+        <v>67.03594207763672</v>
       </c>
     </row>
     <row r="57">
@@ -2264,17 +2544,22 @@
       <c r="F57" t="n">
         <v>36.03490394546852</v>
       </c>
-      <c r="G57" t="n">
-        <v>194.2084503173828</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H57" t="n">
-        <v>50.05277252197266</v>
+        <v>136.7103729248047</v>
       </c>
       <c r="I57" t="n">
-        <v>299.983642578125</v>
+        <v>33.76896286010742</v>
       </c>
       <c r="J57" t="n">
-        <v>153.0180053710938</v>
+        <v>331.7710266113281</v>
+      </c>
+      <c r="K57" t="n">
+        <v>194.9808044433594</v>
       </c>
     </row>
     <row r="58">
@@ -2296,17 +2581,22 @@
       <c r="F58" t="n">
         <v>33.0417017672229</v>
       </c>
-      <c r="G58" t="n">
-        <v>264.9592590332031</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H58" t="n">
-        <v>59.58970260620117</v>
+        <v>198.5824279785156</v>
       </c>
       <c r="I58" t="n">
-        <v>375.1425170898438</v>
+        <v>55.09871673583984</v>
       </c>
       <c r="J58" t="n">
-        <v>167.0718536376953</v>
+        <v>502.6794738769531</v>
+      </c>
+      <c r="K58" t="n">
+        <v>245.0772552490234</v>
       </c>
     </row>
     <row r="59">
@@ -2328,17 +2618,22 @@
       <c r="F59" t="n">
         <v>43.98768298598323</v>
       </c>
-      <c r="G59" t="n">
-        <v>108.8522033691406</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H59" t="n">
-        <v>57.75454711914062</v>
+        <v>102.6877365112305</v>
       </c>
       <c r="I59" t="n">
-        <v>41.75646209716797</v>
+        <v>37.60998916625977</v>
       </c>
       <c r="J59" t="n">
-        <v>48.0156364440918</v>
+        <v>38.58689117431641</v>
+      </c>
+      <c r="K59" t="n">
+        <v>45.78774642944336</v>
       </c>
     </row>
     <row r="60">
@@ -2360,17 +2655,22 @@
       <c r="F60" t="n">
         <v>45.7006317110727</v>
       </c>
-      <c r="G60" t="n">
-        <v>113.3435516357422</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H60" t="n">
-        <v>55.54719924926758</v>
+        <v>105.6898574829102</v>
       </c>
       <c r="I60" t="n">
-        <v>50.96676254272461</v>
+        <v>35.2604866027832</v>
       </c>
       <c r="J60" t="n">
-        <v>48.17207717895508</v>
+        <v>48.73415756225586</v>
+      </c>
+      <c r="K60" t="n">
+        <v>45.10922622680664</v>
       </c>
     </row>
     <row r="61">
@@ -2392,17 +2692,22 @@
       <c r="F61" t="n">
         <v>46.67965674781412</v>
       </c>
-      <c r="G61" t="n">
-        <v>120.159065246582</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H61" t="n">
-        <v>54.32233810424805</v>
+        <v>109.260009765625</v>
       </c>
       <c r="I61" t="n">
-        <v>66.14545440673828</v>
+        <v>34.8790283203125</v>
       </c>
       <c r="J61" t="n">
-        <v>46.31843948364258</v>
+        <v>68.93539428710938</v>
+      </c>
+      <c r="K61" t="n">
+        <v>47.05549240112305</v>
       </c>
     </row>
     <row r="62">
@@ -2424,17 +2729,22 @@
       <c r="F62" t="n">
         <v>47.53914448671719</v>
       </c>
-      <c r="G62" t="n">
-        <v>125.1567840576172</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H62" t="n">
-        <v>53.11932754516602</v>
+        <v>114.4580612182617</v>
       </c>
       <c r="I62" t="n">
-        <v>77.54490661621094</v>
+        <v>35.04794311523438</v>
       </c>
       <c r="J62" t="n">
-        <v>47.95573806762695</v>
+        <v>83.33927917480469</v>
+      </c>
+      <c r="K62" t="n">
+        <v>48.74124908447266</v>
       </c>
     </row>
     <row r="63">
@@ -2456,17 +2766,22 @@
       <c r="F63" t="n">
         <v>47.07121651777462</v>
       </c>
-      <c r="G63" t="n">
-        <v>130.8555297851562</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H63" t="n">
-        <v>50.70615768432617</v>
+        <v>119.3088836669922</v>
       </c>
       <c r="I63" t="n">
-        <v>93.89513397216797</v>
+        <v>34.80296325683594</v>
       </c>
       <c r="J63" t="n">
-        <v>44.71888732910156</v>
+        <v>101.3047561645508</v>
+      </c>
+      <c r="K63" t="n">
+        <v>47.83980941772461</v>
       </c>
     </row>
     <row r="64">
@@ -2488,17 +2803,22 @@
       <c r="F64" t="n">
         <v>45.67156598130153</v>
       </c>
-      <c r="G64" t="n">
-        <v>151.5231323242188</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H64" t="n">
-        <v>49.38864135742188</v>
+        <v>129.3546905517578</v>
       </c>
       <c r="I64" t="n">
-        <v>108.6828536987305</v>
+        <v>31.75043106079102</v>
       </c>
       <c r="J64" t="n">
-        <v>50.86137008666992</v>
+        <v>118.425407409668</v>
+      </c>
+      <c r="K64" t="n">
+        <v>48.15153884887695</v>
       </c>
     </row>
     <row r="65">
@@ -2520,17 +2840,22 @@
       <c r="F65" t="n">
         <v>42.51104340916319</v>
       </c>
-      <c r="G65" t="n">
-        <v>196.7204437255859</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H65" t="n">
-        <v>49.32342910766602</v>
+        <v>136.6665802001953</v>
       </c>
       <c r="I65" t="n">
-        <v>172.8096771240234</v>
+        <v>33.01910400390625</v>
       </c>
       <c r="J65" t="n">
-        <v>112.7977142333984</v>
+        <v>168.4127960205078</v>
+      </c>
+      <c r="K65" t="n">
+        <v>92.54941558837891</v>
       </c>
     </row>
     <row r="66">
@@ -2552,17 +2877,22 @@
       <c r="F66" t="n">
         <v>54.37577254606605</v>
       </c>
-      <c r="G66" t="n">
-        <v>122.8472366333008</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H66" t="n">
-        <v>54.15967559814453</v>
+        <v>109.3545989990234</v>
       </c>
       <c r="I66" t="n">
-        <v>0.5954373478889465</v>
+        <v>35.45871734619141</v>
       </c>
       <c r="J66" t="n">
-        <v>59.57480621337891</v>
+        <v>2.521033763885498</v>
+      </c>
+      <c r="K66" t="n">
+        <v>52.56985092163086</v>
       </c>
     </row>
     <row r="67">
@@ -2584,17 +2914,22 @@
       <c r="F67" t="n">
         <v>55.07062752917076</v>
       </c>
-      <c r="G67" t="n">
-        <v>127.0930709838867</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H67" t="n">
-        <v>55.08964157104492</v>
+        <v>110.9043121337891</v>
       </c>
       <c r="I67" t="n">
-        <v>17.07089233398438</v>
+        <v>35.18846893310547</v>
       </c>
       <c r="J67" t="n">
-        <v>56.63812637329102</v>
+        <v>19.34404563903809</v>
+      </c>
+      <c r="K67" t="n">
+        <v>55.31411361694336</v>
       </c>
     </row>
     <row r="68">
@@ -2616,17 +2951,22 @@
       <c r="F68" t="n">
         <v>54.82432856758766</v>
       </c>
-      <c r="G68" t="n">
-        <v>130.3688507080078</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H68" t="n">
-        <v>54.26485824584961</v>
+        <v>113.6058959960938</v>
       </c>
       <c r="I68" t="n">
-        <v>35.17263412475586</v>
+        <v>34.80369186401367</v>
       </c>
       <c r="J68" t="n">
-        <v>54.11275100708008</v>
+        <v>44.0911750793457</v>
+      </c>
+      <c r="K68" t="n">
+        <v>55.24248504638672</v>
       </c>
     </row>
     <row r="69">
@@ -2648,17 +2988,22 @@
       <c r="F69" t="n">
         <v>54.18769809434324</v>
       </c>
-      <c r="G69" t="n">
-        <v>136.0939636230469</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H69" t="n">
-        <v>50.83196258544922</v>
+        <v>120.1865386962891</v>
       </c>
       <c r="I69" t="n">
-        <v>56.82490158081055</v>
+        <v>34.76640319824219</v>
       </c>
       <c r="J69" t="n">
-        <v>54.33254623413086</v>
+        <v>70.35634613037109</v>
+      </c>
+      <c r="K69" t="n">
+        <v>53.81354522705078</v>
       </c>
     </row>
     <row r="70">
@@ -2680,17 +3025,22 @@
       <c r="F70" t="n">
         <v>51.347187815424</v>
       </c>
-      <c r="G70" t="n">
-        <v>151.6969146728516</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H70" t="n">
-        <v>48.6657600402832</v>
+        <v>127.0105438232422</v>
       </c>
       <c r="I70" t="n">
-        <v>79.69431304931641</v>
+        <v>33.42333221435547</v>
       </c>
       <c r="J70" t="n">
-        <v>55.19231414794922</v>
+        <v>94.17029571533203</v>
+      </c>
+      <c r="K70" t="n">
+        <v>50.35868835449219</v>
       </c>
     </row>
   </sheetData>
